--- a/src/main/webapp/resources/other/ModeloDeImportacionCuestionario.xlsx
+++ b/src/main/webapp/resources/other/ModeloDeImportacionCuestionario.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\favio.flores\Documents\NetBeansProjects\JAIO360\src\main\webapp\WEB-INF\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\favio.flores\Documents\NetBeansProjects\JAIO360\src\main\webapp\resources\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14BE5EC2-9BFD-440F-9574-6244A88CA8FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B9C16-BDCD-431F-8395-A0864A525B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32770" yWindow="32770" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="32770" yWindow="32770" windowWidth="20490" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Cuestionarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>CUE</t>
   </si>
@@ -116,13 +116,22 @@
   </si>
   <si>
     <t>Pregunta Abierta 3</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Puntaje requerido</t>
+  </si>
+  <si>
+    <t>Puntaje mínimo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +142,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,26 +218,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,6 +260,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFCDCD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,239 +539,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.453125" customWidth="1"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.54296875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="C66D" sqref="A1:A65536" name="Rango1"/>
+    <protectedRange password="C66D" sqref="A1:A65531" name="Rango1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>